--- a/Data/TownActionDefine.xlsx
+++ b/Data/TownActionDefine.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +87,15 @@
   </si>
   <si>
     <t>walk_desc</t>
+  </si>
+  <si>
+    <t>town_restautant_action_icon</t>
+  </si>
+  <si>
+    <t>restautant_title</t>
+  </si>
+  <si>
+    <t>restautant_desc</t>
   </si>
 </sst>
 </file>
@@ -1221,13 +1243,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1329,6 +1351,23 @@
       </c>
       <c r="E6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TownActionDefine.xlsx
+++ b/Data/TownActionDefine.xlsx
@@ -89,13 +89,13 @@
     <t>walk_desc</t>
   </si>
   <si>
-    <t>town_restautant_action_icon</t>
-  </si>
-  <si>
-    <t>restautant_title</t>
-  </si>
-  <si>
-    <t>restautant_desc</t>
+    <t>town_restaurant_action_icon</t>
+  </si>
+  <si>
+    <t>restaurant_title</t>
+  </si>
+  <si>
+    <t>restaurant_desc</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>

--- a/Data/TownActionDefine.xlsx
+++ b/Data/TownActionDefine.xlsx
@@ -80,13 +80,13 @@
     <t>train_desc</t>
   </si>
   <si>
-    <t>town_walk_action_icon</t>
-  </si>
-  <si>
-    <t>walk_title</t>
-  </si>
-  <si>
-    <t>walk_desc</t>
+    <t>town_game_action_icon</t>
+  </si>
+  <si>
+    <t>game_title</t>
+  </si>
+  <si>
+    <t>game_desc</t>
   </si>
   <si>
     <t>town_restaurant_action_icon</t>
@@ -1246,10 +1246,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="13.6153846153846" customWidth="1"/>
+    <col min="5" max="5" width="14.7403846153846" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">

--- a/Data/TownActionDefine.xlsx
+++ b/Data/TownActionDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="19200" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Data/TownActionDefine.xlsx
+++ b/Data/TownActionDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7440"/>
+    <workbookView windowWidth="13680" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -69,15 +69,6 @@
   </si>
   <si>
     <t>shop_desc</t>
-  </si>
-  <si>
-    <t>town_train_action_icon</t>
-  </si>
-  <si>
-    <t>train_title</t>
-  </si>
-  <si>
-    <t>train_desc</t>
   </si>
   <si>
     <t>town_game_action_icon</t>
@@ -1243,13 +1234,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="4" width="13.6153846153846" customWidth="1"/>
     <col min="5" max="5" width="14.7403846153846" customWidth="1"/>
@@ -1357,23 +1348,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
